--- a/banco de dados.xlsx
+++ b/banco de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgcs_\PycharmProjects\BIInvestimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E8EDA-A8C0-428A-9F11-B4D036BF2680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C8828-7B7E-48FA-860C-8944AC920B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69882597-F643-4CDD-8F87-C8836346640D}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9091" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9079" uniqueCount="93">
   <si>
     <t>MM Canvas</t>
   </si>
@@ -404,42 +404,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>contratado puc</t>
-  </si>
-  <si>
-    <t>demitido SNC</t>
-  </si>
-  <si>
-    <t>genocídio em gaza</t>
-  </si>
-  <si>
-    <t>RJ Light</t>
-  </si>
-  <si>
-    <t>Quebra do SVB</t>
-  </si>
-  <si>
-    <t>RJ Americanas</t>
-  </si>
-  <si>
-    <t>Guerra Ucrânia</t>
-  </si>
-  <si>
-    <t>Promovido a engenheiro</t>
-  </si>
-  <si>
-    <t>Contratado pela SNC</t>
-  </si>
-  <si>
-    <t>Corona Vírus</t>
-  </si>
-  <si>
-    <t>Contradado pela Ownergy</t>
-  </si>
-  <si>
-    <t>contratado pela Ivory</t>
-  </si>
-  <si>
     <t>Inflação</t>
   </si>
   <si>
@@ -510,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,13 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF4949"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +502,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -557,29 +515,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="7" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="7" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -597,953 +556,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Distribuição</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.6708920353565673E-2"/>
-          <c:y val="0.20078700672629318"/>
-          <c:w val="0.8954584936972565"/>
-          <c:h val="0.71239960048665807"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Evolução Mensal'!$J$26:$J$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-3.3416683186583099E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.645871207666961E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.9500740966756122E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.2542769856842632E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.584798746929142E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3731723629843481E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3311434728978381E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5289114582811328E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2247085692724818E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Evolução Mensal'!$K$26:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D0E-488A-8F46-25C48A86B736}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:axId val="1319837999"/>
-        <c:axId val="1319835919"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1319837999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1319835919"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1319835919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1319837999"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ABFE30-39F8-4CFF-9BFE-72BFAF77896E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1922,8 +934,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,1684 +958,1627 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="D1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>42917</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="24">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="22">
         <f>SUM('Banco de Dados'!E2:E4)</f>
         <v>1700</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
         <v>1.9E-3</v>
       </c>
-      <c r="F2" s="11">
-        <f>1+C2</f>
-        <v>1</v>
-      </c>
-      <c r="V2" s="31"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="11"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>42948</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="24">
+        <v>42917</v>
+      </c>
+      <c r="B3" s="22">
         <f>SUM('Banco de Dados'!E5:E8)</f>
         <v>1613.73</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="25">
         <v>1.9614284999999999E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="26">
         <v>1.6000000000000001E-3</v>
       </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="11"/>
-      <c r="V3" s="31"/>
+      <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>42979</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="24">
+        <v>42948</v>
+      </c>
+      <c r="B4" s="22">
         <f>SUM('Banco de Dados'!E9:E12)</f>
         <v>2295.0500000000002</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="25">
         <v>1.29408E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="26">
         <v>4.1999999999999997E-3</v>
       </c>
+      <c r="E4" s="21"/>
       <c r="F4" s="11"/>
-      <c r="V4" s="31"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>43009</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="24">
+        <v>42979</v>
+      </c>
+      <c r="B5" s="22">
         <f>SUM('Banco de Dados'!E13:E16)</f>
         <v>3841.02</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="25">
         <v>3.84272E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="26">
         <v>2.8E-3</v>
       </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="11"/>
-      <c r="V5" s="31"/>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="24">
+        <v>43009</v>
+      </c>
+      <c r="B6" s="22">
         <f>SUM('Banco de Dados'!E17:E24)</f>
         <v>5318.29</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="25">
         <v>-9.8715000000000001E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="26">
         <v>4.4000000000000003E-3</v>
       </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="11"/>
-      <c r="V6" s="31"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43070</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="24">
+        <v>43040</v>
+      </c>
+      <c r="B7" s="22">
         <f>SUM('Banco de Dados'!E25:E34)</f>
         <v>10569.15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="25">
         <v>-4.6493799999999998E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>2.8999999999999998E-3</v>
       </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>43101</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="24">
+        <v>43070</v>
+      </c>
+      <c r="B8" s="22">
         <f>SUM('Banco de Dados'!E35:E44)</f>
         <v>10747.95</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="25">
         <f>(B8/'Evolução Mensal'!B7)-1</f>
         <v>1.6917159847291474E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="26">
         <v>4.4000000000000003E-3</v>
       </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43132</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="24">
+        <v>43101</v>
+      </c>
+      <c r="B9" s="22">
         <f>SUM('Banco de Dados'!E45:E54)</f>
         <v>10900.36</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="25">
         <f>(B9/'Evolução Mensal'!B8)-1</f>
         <v>1.4180378583823039E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="26">
         <v>2.8999999999999998E-3</v>
       </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="11"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43160</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="24">
+        <v>43132</v>
+      </c>
+      <c r="B10" s="22">
         <f>SUM('Banco de Dados'!E55:E65)</f>
         <v>10994.160000000003</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="25">
         <f>(B10/('Evolução Mensal'!B9+('Banco de Dados'!D55-('Banco de Dados'!G56+'Banco de Dados'!G57))))-1</f>
         <v>8.6052203780428993E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="26">
         <v>3.2000000000000002E-3</v>
       </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="11"/>
       <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>43191</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="24">
+        <v>43160</v>
+      </c>
+      <c r="B11" s="22">
         <f>SUM('Banco de Dados'!E66:E76)</f>
         <v>11123.43</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="25">
         <f>(B11/('Evolução Mensal'!B10+('Banco de Dados'!D76-('Banco de Dados'!G75+'Banco de Dados'!G66))))-1</f>
         <v>1.3431144230862113E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="26">
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="11"/>
       <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>43221</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" s="24">
+        <v>43191</v>
+      </c>
+      <c r="B12" s="22">
         <f>SUM('Banco de Dados'!E77:E87)</f>
         <v>11238.189999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="25">
         <f>(B12/('Evolução Mensal'!B11+'Banco de Dados'!D87))-1</f>
         <v>5.1338053929996796E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="26">
         <v>2.2000000000000001E-3</v>
       </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="11"/>
       <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>43252</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="24">
+        <v>43221</v>
+      </c>
+      <c r="B13" s="22">
         <f>SUM('Banco de Dados'!E88:E99)</f>
         <v>11197.190000000002</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="25">
         <f>(B13/'Evolução Mensal'!B12)-1</f>
         <v>-3.6482743217542968E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="11"/>
       <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>43282</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="24">
+        <v>43252</v>
+      </c>
+      <c r="B14" s="22">
         <f>SUM('Banco de Dados'!E100:E108)</f>
         <v>12164.309999999998</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="25">
         <f>(B14/('Evolução Mensal'!B13+'Banco de Dados'!D108+'Banco de Dados'!D100))-1</f>
         <v>-3.3551108292657617E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="26">
         <v>1.26E-2</v>
       </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="11"/>
       <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>43313</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="24">
+        <v>43282</v>
+      </c>
+      <c r="B15" s="22">
         <f>SUM('Banco de Dados'!E109:E117)</f>
         <v>12452.019999999999</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="25">
         <f>(B15/('Evolução Mensal'!B14+'Banco de Dados'!D117))-1</f>
         <v>9.5735831372618652E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="26">
         <v>3.3E-3</v>
       </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="11"/>
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>43344</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="24">
+        <v>43313</v>
+      </c>
+      <c r="B16" s="22">
         <f>SUM('Banco de Dados'!E118:E126)</f>
         <v>12457.27</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="25">
         <f>(B16/('Banco de Dados'!D126 +'Evolução Mensal'!B15))-1</f>
         <v>-1.5300937132303183E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="26">
         <v>-8.9999999999999998E-4</v>
       </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>43374</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B17" s="22">
         <f>SUM('Banco de Dados'!E127:E135)</f>
         <v>12803.21</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="25">
         <f>(B17/('Banco de Dados'!D127+'Evolução Mensal'!B16))-1</f>
         <v>1.724411771379275E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="26">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>43405</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B18" s="22">
         <f>SUM('Banco de Dados'!E136:E144)</f>
         <v>13105.480000000001</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="25">
         <f>(B18/('Banco de Dados'!D136+'Evolução Mensal'!B17))-1</f>
         <v>2.050513348621541E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="26">
         <v>4.4999999999999997E-3</v>
       </c>
+      <c r="E18" s="21"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="24">
+        <v>43405</v>
+      </c>
+      <c r="B19" s="22">
+        <v>14200.71</v>
+      </c>
+      <c r="C19" s="25">
+        <v>5.4091876070163011E-3</v>
+      </c>
+      <c r="D19" s="26">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>43435</v>
       </c>
-      <c r="B19" s="1">
-        <v>14200.71</v>
-      </c>
-      <c r="C19" s="8">
-        <v>5.4091876070163011E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="B20" s="22">
+        <v>20237.16</v>
+      </c>
+      <c r="C20" s="27">
+        <v>7.751020899659242E-3</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>43466</v>
       </c>
-      <c r="B20" s="1">
-        <v>20237.16</v>
-      </c>
-      <c r="C20" s="11">
-        <v>7.751020899659242E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="30"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="B21" s="22">
+        <v>21566.81</v>
+      </c>
+      <c r="C21" s="27">
+        <v>9.4044816565170206E-3</v>
+      </c>
+      <c r="D21" s="26">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <v>43497</v>
       </c>
-      <c r="B21" s="25">
-        <v>21566.81</v>
-      </c>
-      <c r="C21" s="16">
-        <v>9.4044816565170206E-3</v>
-      </c>
-      <c r="D21" s="15">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="B22" s="22">
+        <v>22252.41</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2.442089899181015E-3</v>
+      </c>
+      <c r="D22" s="26">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <v>43525</v>
       </c>
-      <c r="B22" s="1">
-        <v>22252.41</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2.442089899181015E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4.3E-3</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>43556</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="B23" s="22">
         <v>23539.72</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="27">
         <v>5.8673444316205041E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="26">
         <v>7.4999999999999997E-3</v>
       </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="11"/>
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="24">
+        <v>43556</v>
+      </c>
+      <c r="B24" s="22">
+        <v>24294.21</v>
+      </c>
+      <c r="C24" s="27">
+        <v>4.3196035340632303E-3</v>
+      </c>
+      <c r="D24" s="26">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>43586</v>
       </c>
-      <c r="B24" s="25">
-        <v>24294.21</v>
-      </c>
-      <c r="C24" s="16">
-        <v>4.3196035340632303E-3</v>
-      </c>
-      <c r="D24" s="15">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="B25" s="22">
+        <v>26119.84</v>
+      </c>
+      <c r="C25" s="27">
+        <v>6.7695258402549162E-3</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
         <v>43617</v>
       </c>
-      <c r="B25" s="1">
-        <v>26119.84</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6.7695258402549162E-3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="B26" s="22">
+        <v>28497.16</v>
+      </c>
+      <c r="C26" s="27">
+        <v>1.1805934034330268E-2</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="6"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <v>43647</v>
       </c>
-      <c r="B26" s="1">
-        <v>28497.16</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1.1805934034330268E-2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="6">
-        <f>SMALL(C2:C999,1)</f>
+      <c r="B27" s="22">
+        <v>31473.919999999998</v>
+      </c>
+      <c r="C27" s="27">
+        <v>5.3879141677514158E-3</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>43678</v>
+      </c>
+      <c r="B28" s="22">
+        <v>31731.48</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1.8172679605176752E-3</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="11"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>43709</v>
+      </c>
+      <c r="B29" s="22">
+        <v>33382.19</v>
+      </c>
+      <c r="C29" s="27">
+        <v>4.5351576276470382E-3</v>
+      </c>
+      <c r="D29" s="26">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>43739</v>
+      </c>
+      <c r="B30" s="22">
+        <v>35041.54</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1.0361225747278359E-2</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>43770</v>
+      </c>
+      <c r="B31" s="22">
+        <v>36547.25</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1.52665521926452E-3</v>
+      </c>
+      <c r="D31" s="26">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="11"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>43800</v>
+      </c>
+      <c r="B32" s="22">
+        <v>41049.99</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1.8048099994419954E-2</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>43831</v>
+      </c>
+      <c r="B33" s="22">
+        <v>42523.24</v>
+      </c>
+      <c r="C33" s="27">
+        <v>2.9068403082170538E-3</v>
+      </c>
+      <c r="D33" s="26">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="11"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>43862</v>
+      </c>
+      <c r="B34" s="22">
+        <v>44908.480000000003</v>
+      </c>
+      <c r="C34" s="27">
+        <v>-1.4399674117319544E-3</v>
+      </c>
+      <c r="D34" s="26">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="11"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>43891</v>
+      </c>
+      <c r="B35" s="22">
+        <v>44774.66</v>
+      </c>
+      <c r="C35" s="27">
         <v>-4.0374654296496587E-2</v>
       </c>
-      <c r="I26" s="26">
-        <f>G26</f>
-        <v>-4.0374654296496587E-2</v>
-      </c>
-      <c r="J26" s="26">
-        <f>I26+G30</f>
-        <v>-3.3416683186583099E-2</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ref="K26:K31" si="0">COUNTIFS(C$3:C$999,"&gt;="&amp;I26,C$3:C$999,"&lt;"&amp;J26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>43678</v>
-      </c>
-      <c r="B27" s="1">
-        <v>31473.919999999998</v>
-      </c>
-      <c r="C27" s="11">
-        <v>5.3879141677514158E-3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.9E-3</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="6">
-        <f>LARGE(C2:C999,1)</f>
-        <v>2.2247085692724829E-2</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" ref="I27:I34" si="1">J26</f>
-        <v>-3.3416683186583099E-2</v>
-      </c>
-      <c r="J27" s="26">
-        <f t="shared" ref="J27:J34" si="2">I27+G$30</f>
-        <v>-2.645871207666961E-2</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>43709</v>
-      </c>
-      <c r="B28" s="1">
-        <v>31731.48</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1.8172679605176752E-3</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28">
-        <f>ROUNDDOWN((SQRT(COUNTIF(B:B,"&lt;&gt;")-3)),0)</f>
-        <v>9</v>
-      </c>
-      <c r="I28" s="26">
-        <f t="shared" si="1"/>
-        <v>-2.645871207666961E-2</v>
-      </c>
-      <c r="J28" s="26">
-        <f t="shared" si="2"/>
-        <v>-1.9500740966756122E-2</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>43739</v>
-      </c>
-      <c r="B29" s="1">
-        <v>33382.19</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4.5351576276470382E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>-4.0000000000000002E-4</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="26">
-        <f>G27-G26</f>
-        <v>6.2621739989221409E-2</v>
-      </c>
-      <c r="I29" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.9500740966756122E-2</v>
-      </c>
-      <c r="J29" s="26">
-        <f t="shared" si="2"/>
-        <v>-1.2542769856842632E-2</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>43771</v>
-      </c>
-      <c r="B30" s="1">
-        <v>35041.54</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1.0361225747278359E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="6">
-        <f>G29/G28</f>
-        <v>6.9579711099134901E-3</v>
-      </c>
-      <c r="I30" s="26">
-        <f t="shared" si="1"/>
-        <v>-1.2542769856842632E-2</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="2"/>
-        <v>-5.584798746929142E-3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>43802</v>
-      </c>
-      <c r="B31" s="1">
-        <v>36547.25</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1.52665521926452E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="I31" s="26">
-        <f t="shared" si="1"/>
-        <v>-5.584798746929142E-3</v>
-      </c>
-      <c r="J31" s="26">
-        <f t="shared" si="2"/>
-        <v>1.3731723629843481E-3</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>43834</v>
-      </c>
-      <c r="B32" s="1">
-        <v>41049.99</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1.8048099994419954E-2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.15E-2</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="H32" s="29">
-        <f>AVERAGE(C3:C999)</f>
-        <v>5.9984376015450322E-3</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3731723629843481E-3</v>
-      </c>
-      <c r="J32" s="26">
-        <f t="shared" si="2"/>
-        <v>8.3311434728978381E-3</v>
-      </c>
-      <c r="K32">
-        <f>COUNTIFS(C$3:C$999,"&gt;="&amp;I32,C$3:C$999,"&lt;="&amp;J32)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>43864</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42523.24</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2.9068403082170538E-3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="I33" s="26">
-        <f t="shared" si="1"/>
-        <v>8.3311434728978381E-3</v>
-      </c>
-      <c r="J33" s="26">
-        <f t="shared" si="2"/>
-        <v>1.5289114582811328E-2</v>
-      </c>
-      <c r="K33">
-        <f>COUNTIFS(C$3:C$999,"&gt;="&amp;I33,C$3:C$999,"&lt;="&amp;J33)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>43894</v>
-      </c>
-      <c r="B34" s="1">
-        <v>44908.480000000003</v>
-      </c>
-      <c r="C34" s="11">
-        <v>-1.4399674117319544E-3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="I34" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5289114582811328E-2</v>
-      </c>
-      <c r="J34" s="26">
-        <f t="shared" si="2"/>
-        <v>2.2247085692724818E-2</v>
-      </c>
-      <c r="K34">
-        <f>COUNTIFS(C$3:C$999,"&gt;="&amp;I34,C$3:C$999,"&lt;="&amp;J34)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>43924</v>
-      </c>
-      <c r="B35" s="28">
-        <v>44774.66</v>
-      </c>
-      <c r="C35" s="21">
-        <v>-4.0374654296496587E-2</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="D35" s="26">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="E35" s="29"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>43922</v>
+      </c>
+      <c r="B36" s="22">
+        <v>47137.66</v>
+      </c>
+      <c r="C36" s="27">
+        <v>1.645295081408683E-2</v>
+      </c>
+      <c r="D36" s="26">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>43952</v>
       </c>
-      <c r="B36" s="1">
-        <v>47137.66</v>
-      </c>
-      <c r="C36" s="11">
-        <v>1.645295081408683E-2</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-3.0999999999999999E-3</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>43985</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="B37" s="22">
         <v>49353.1</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="27">
         <v>1.1589815949360965E-2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="26">
         <v>-3.8E-3</v>
       </c>
+      <c r="E37" s="21"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>44015</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>43983</v>
+      </c>
+      <c r="B38" s="22">
         <v>53225.09</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="27">
         <v>1.0863367968837542E-2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
+      <c r="E38" s="21"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="G38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>44013</v>
+      </c>
+      <c r="B39" s="22">
+        <v>55312.86</v>
+      </c>
+      <c r="C39" s="27">
+        <v>1.166472702651244E-2</v>
+      </c>
+      <c r="D39" s="26">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
         <v>44044</v>
       </c>
-      <c r="B39" s="1">
-        <v>55312.86</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1.166472702651244E-2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
-        <v>44077</v>
-      </c>
-      <c r="B40" s="25">
+      <c r="B40" s="22">
         <v>57140.97</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="27">
         <v>4.8908901170289362E-3</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>99</v>
-      </c>
+      <c r="E40" s="28"/>
       <c r="F40" s="11"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>44107</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>44075</v>
+      </c>
+      <c r="B41" s="22">
         <v>61286.41</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="27">
         <v>-4.9448807187157471E-3</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="26">
         <v>6.4000000000000003E-3</v>
       </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>44138</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="G41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>44105</v>
+      </c>
+      <c r="B42" s="22">
         <v>63195.15</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="27">
         <v>4.1111337618399274E-3</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="26">
         <v>8.6E-3</v>
       </c>
+      <c r="E42" s="21"/>
       <c r="F42" s="11"/>
       <c r="G42" s="6"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>44168</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>44136</v>
+      </c>
+      <c r="B43" s="22">
         <v>65795.58</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="27">
         <v>1.7796075962388518E-2</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="26">
         <v>8.8999999999999999E-3</v>
       </c>
+      <c r="E43" s="21"/>
       <c r="F43" s="11"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>44198</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>44166</v>
+      </c>
+      <c r="B44" s="22">
         <v>69031.5</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="27">
         <v>1.3000402960837666E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="26">
         <v>1.35E-2</v>
       </c>
+      <c r="E44" s="21"/>
       <c r="F44" s="11"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44230</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44197</v>
+      </c>
+      <c r="B45" s="22">
         <v>71116.42</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="27">
         <v>5.4419883644486544E-3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="26">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="11"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>44258</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>44228</v>
+      </c>
+      <c r="B46" s="22">
         <v>72543.41</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="27">
         <v>-3.7492917119517823E-3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="26">
         <v>8.6E-3</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>44288</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>44256</v>
+      </c>
+      <c r="B47" s="22">
         <v>75050.399999999994</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="27">
         <v>1.0869516903924537E-2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="26">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>44319</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>44287</v>
+      </c>
+      <c r="B48" s="22">
         <v>77515.820000000007</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="27">
         <v>9.9728470470512205E-3</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="26">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>44349</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="A49" s="24">
+        <v>44317</v>
+      </c>
+      <c r="B49" s="22">
         <v>80290.64</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="27">
         <v>1.3568249372410713E-2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="26">
         <v>8.6E-3</v>
       </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>44379</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="A50" s="24">
+        <v>44348</v>
+      </c>
+      <c r="B50" s="22">
         <v>81777.2</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="27">
         <v>-2.6032239777613641E-3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="26">
         <v>5.3E-3</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>44411</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="24">
+        <v>44378</v>
+      </c>
+      <c r="B51" s="22">
         <v>83609.36</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="27">
         <v>1.5831867863320762E-3</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="26">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
-        <v>44442</v>
-      </c>
-      <c r="B52" s="25">
+      <c r="A52" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B52" s="22">
         <v>85708.6</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="27">
         <v>4.6799085117975332E-3</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="26">
         <v>8.6E-3</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E52" s="31"/>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>44471</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53" s="24">
+        <v>44440</v>
+      </c>
+      <c r="B53" s="22">
         <v>87213.47</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="27">
         <v>-2.2323604313534366E-3</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="26">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>44503</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="A54" s="24">
+        <v>44470</v>
+      </c>
+      <c r="B54" s="22">
         <v>89709.51</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="27">
         <v>8.9530011594418715E-3</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="26">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="24">
+        <v>44501</v>
+      </c>
+      <c r="B55" s="22">
+        <v>91775.89</v>
+      </c>
+      <c r="C55" s="27">
+        <v>4.0080731206195066E-3</v>
+      </c>
+      <c r="D55" s="26">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
         <v>44531</v>
       </c>
-      <c r="B55" s="1">
-        <v>91775.89</v>
-      </c>
-      <c r="C55" s="11">
-        <v>4.0080731206195066E-3</v>
-      </c>
-      <c r="D55" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>44564</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="B56" s="22">
         <v>98246.720000000001</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="27">
         <v>1.2060999904301676E-2</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="26">
         <v>7.3000000000000001E-3</v>
       </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>44594</v>
-      </c>
-      <c r="B57" s="12">
+      <c r="A57" s="24">
+        <v>44562</v>
+      </c>
+      <c r="B57" s="32">
         <v>100990.97</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="27">
         <v>-2.5260561527326517E-3</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="26">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
-        <v>44623</v>
-      </c>
-      <c r="B58" s="22">
+      <c r="A58" s="24">
+        <v>44593</v>
+      </c>
+      <c r="B58" s="32">
         <v>104038.71</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="27">
         <v>3.353590963610428E-3</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="26">
         <v>1.01E-2</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="E58" s="29"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>44653</v>
-      </c>
-      <c r="B59" s="12">
+      <c r="A59" s="24">
+        <v>44621</v>
+      </c>
+      <c r="B59" s="32">
         <v>108685.23</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="27">
         <v>1.8236274356323023E-2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="26">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>44689</v>
-      </c>
-      <c r="B60" s="12">
+      <c r="A60" s="24">
+        <v>44652</v>
+      </c>
+      <c r="B60" s="32">
         <v>109884.98</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="27">
         <v>-1.3469038040321863E-2</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="26">
         <v>1.06E-2</v>
       </c>
+      <c r="E60" s="21"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>44715</v>
-      </c>
-      <c r="B61" s="12">
+      <c r="A61" s="24">
+        <v>44682</v>
+      </c>
+      <c r="B61" s="32">
         <v>113268.22</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="27">
         <v>6.0686620897387909E-3</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="26">
         <v>4.7000000000000002E-3</v>
       </c>
+      <c r="E61" s="21"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>44744</v>
-      </c>
-      <c r="B62" s="12">
+      <c r="A62" s="24">
+        <v>44713</v>
+      </c>
+      <c r="B62" s="32">
         <v>114667.39</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="27">
         <v>-1.461597247083439E-2</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="26">
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="E62" s="21"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>44776</v>
-      </c>
-      <c r="B63" s="12">
+      <c r="A63" s="24">
+        <v>44743</v>
+      </c>
+      <c r="B63" s="32">
         <v>120182.92</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="27">
         <v>2.2247085692724829E-2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="26">
         <v>-6.7999999999999996E-3</v>
       </c>
+      <c r="E63" s="21"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>44807</v>
-      </c>
-      <c r="B64" s="12">
+      <c r="A64" s="24">
+        <v>44774</v>
+      </c>
+      <c r="B64" s="32">
         <v>124105.11</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="27">
         <v>9.9459518051817127E-3</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="26">
         <v>-3.5999999999999999E-3</v>
       </c>
+      <c r="E64" s="21"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>44837</v>
-      </c>
-      <c r="B65" s="12">
+      <c r="A65" s="24">
+        <v>44805</v>
+      </c>
+      <c r="B65" s="32">
         <v>126337.04</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="27">
         <v>-3.4947745352169202E-3</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="26">
         <v>-2.8999999999999998E-3</v>
       </c>
+      <c r="E65" s="21"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>44867</v>
-      </c>
-      <c r="B66" s="12">
+      <c r="A66" s="24">
+        <v>44835</v>
+      </c>
+      <c r="B66" s="32">
         <v>130934.62</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="27">
         <v>1.2156413117789422E-2</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="26">
         <v>5.8999999999999999E-3</v>
       </c>
+      <c r="E66" s="21"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>44898</v>
-      </c>
-      <c r="B67" s="12">
+      <c r="A67" s="24">
+        <v>44866</v>
+      </c>
+      <c r="B67" s="32">
         <v>134304.29</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="27">
         <v>2.7600780141833381E-3</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="26">
         <v>4.1000000000000003E-3</v>
       </c>
+      <c r="E67" s="21"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>44929</v>
-      </c>
-      <c r="B68" s="12">
+      <c r="A68" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B68" s="32">
         <v>138964.01</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="27">
         <v>-1.0084520038885932E-3</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="26">
         <v>6.1999999999999998E-3</v>
       </c>
+      <c r="E68" s="21"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>44960</v>
-      </c>
-      <c r="B69" s="22">
+      <c r="A69" s="24">
+        <v>44927</v>
+      </c>
+      <c r="B69" s="32">
         <v>145089.4</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="27">
         <v>2.0577570933740543E-2</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="26">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="E69" s="29"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>44987</v>
-      </c>
-      <c r="B70" s="12">
+      <c r="A70" s="24">
+        <v>44958</v>
+      </c>
+      <c r="B70" s="32">
         <v>148787.20000000001</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="27">
         <v>3.356949316674017E-3</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="26">
         <v>8.3999999999999995E-3</v>
       </c>
+      <c r="E70" s="21"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <v>45019</v>
-      </c>
-      <c r="B71" s="22">
+      <c r="A71" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B71" s="32">
         <v>152937.94</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="27">
         <v>6.2553951911739937E-3</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="26">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E71" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
-        <v>45049</v>
-      </c>
-      <c r="B72" s="22">
+      <c r="A72" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B72" s="32">
         <v>157270.01</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="27">
         <v>7.2504479052304645E-3</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="26">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="E72" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="E72" s="29"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>45079</v>
-      </c>
-      <c r="B73" s="12">
+      <c r="A73" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B73" s="32">
         <v>162025.20000000001</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="27">
         <v>9.6914682064268582E-3</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="26">
         <v>2.3E-3</v>
       </c>
+      <c r="E73" s="21"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>45109</v>
-      </c>
-      <c r="B74" s="12">
+      <c r="A74" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B74" s="32">
         <v>166203.45000000001</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="27">
         <v>5.9207070107949638E-3</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="26">
         <v>-8.0000000000000004E-4</v>
       </c>
+      <c r="E74" s="21"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>45141</v>
-      </c>
-      <c r="B75" s="12">
+      <c r="A75" s="24">
+        <v>45108</v>
+      </c>
+      <c r="B75" s="32">
         <v>170924.69</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="27">
         <v>8.9799824029557843E-3</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="E75" s="21"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>45172</v>
-      </c>
-      <c r="B76" s="12">
+      <c r="A76" s="24">
+        <v>45139</v>
+      </c>
+      <c r="B76" s="32">
         <v>174567.34</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="27">
         <v>2.5421437936228343E-3</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="26">
         <v>2.3E-3</v>
       </c>
+      <c r="E76" s="21"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
-        <v>45202</v>
-      </c>
-      <c r="B77" s="22">
+      <c r="A77" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B77" s="32">
         <v>178253.62</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="27">
         <v>2.7354856071987125E-3</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="E77" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="E77" s="29"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>45233</v>
-      </c>
-      <c r="B78" s="12">
+      <c r="A78" s="24">
+        <v>45200</v>
+      </c>
+      <c r="B78" s="32">
         <v>182328.73</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="27">
         <v>4.8227750981214923E-3</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
+      <c r="E78" s="21"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
-      <c r="I78" s="24"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>45261</v>
-      </c>
-      <c r="B79" s="12">
+      <c r="A79" s="24">
+        <v>45231</v>
+      </c>
+      <c r="B79" s="32">
         <v>188992.19</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="27">
         <v>1.8668052112467973E-2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="26">
         <v>2.8E-3</v>
       </c>
+      <c r="E79" s="21"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>45293</v>
-      </c>
-      <c r="B80" s="12">
+      <c r="A80" s="24">
+        <v>45261</v>
+      </c>
+      <c r="B80" s="32">
         <v>196608.94</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="27">
         <v>1.4534899471438968E-2</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="26">
         <v>5.5999999999999999E-3</v>
       </c>
+      <c r="E80" s="21"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>45325</v>
-      </c>
-      <c r="B81" s="12">
+      <c r="A81" s="24">
+        <v>45292</v>
+      </c>
+      <c r="B81" s="32">
         <v>201024.77</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="27">
         <v>5.0789229721431451E-3</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="26">
         <v>4.1999999999999997E-3</v>
       </c>
+      <c r="E81" s="21"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>45353</v>
-      </c>
-      <c r="B82" s="12">
+      <c r="A82" s="24">
+        <v>45323</v>
+      </c>
+      <c r="B82" s="32">
         <v>207197.06</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="27">
         <v>1.3561419195922294E-2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
+      <c r="E82" s="21"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>45385</v>
-      </c>
-      <c r="B83" s="12">
+      <c r="A83" s="24">
+        <v>45352</v>
+      </c>
+      <c r="B83" s="32">
         <v>212247.28</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="27">
         <v>7.8359118593583407E-3</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="26">
         <v>1.6000000000000001E-3</v>
       </c>
+      <c r="E83" s="21"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>45415</v>
-      </c>
-      <c r="B84" s="22">
+      <c r="A84" s="24">
+        <v>45383</v>
+      </c>
+      <c r="B84" s="32">
         <v>215672.94</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="27">
         <v>1.1899060354482558E-4</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="26">
         <v>3.8E-3</v>
       </c>
-      <c r="E84" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="E84" s="29"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>45446</v>
-      </c>
-      <c r="B85" s="17">
+      <c r="A85" s="24">
+        <v>45413</v>
+      </c>
+      <c r="B85" s="32">
         <v>220359.16</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="27">
         <v>5.8702641501372551E-3</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="26">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="E85" s="31"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>45476</v>
-      </c>
-      <c r="B86" s="12">
+      <c r="A86" s="24">
+        <v>45444</v>
+      </c>
+      <c r="B86" s="32">
         <v>224969.92</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="27">
         <v>5.4109950180363563E-3</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="26">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="E86" s="21"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>45507</v>
-      </c>
-      <c r="B87" s="12">
+      <c r="A87" s="24">
+        <v>45474</v>
+      </c>
+      <c r="B87" s="32">
         <v>230494.11</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="27">
         <v>9.3015367347853862E-3</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="26">
         <v>3.8E-3</v>
       </c>
+      <c r="E87" s="21"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>45538</v>
-      </c>
-      <c r="B88" s="12">
+      <c r="A88" s="24">
+        <v>45505</v>
+      </c>
+      <c r="B88" s="32">
         <v>236736.99</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="27">
         <v>1.2154555751745951E-2</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="26">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>45568</v>
-      </c>
-      <c r="B89" s="12">
+      <c r="A89" s="24">
+        <v>45536</v>
+      </c>
+      <c r="B89" s="32">
         <v>243229.11</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="27">
         <v>1.2876498118844582E-2</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="26">
         <v>4.4000000000000003E-3</v>
       </c>
+      <c r="E89" s="21"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>45598</v>
-      </c>
-      <c r="B90" s="12">
+      <c r="A90" s="24">
+        <v>45566</v>
+      </c>
+      <c r="B90" s="32">
         <v>248322.46</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="27">
         <v>6.8659611997951096E-3</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="26">
         <v>5.7999999999999996E-3</v>
       </c>
+      <c r="E90" s="21"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>45629</v>
-      </c>
-      <c r="B91" s="12">
+      <c r="A91" s="24">
+        <v>45597</v>
+      </c>
+      <c r="B91" s="32">
         <v>255978.89</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="27">
         <v>1.6909232096333399E-2</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="26">
         <v>3.8999999999999998E-3</v>
       </c>
+      <c r="E91" s="21"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>45660</v>
-      </c>
-      <c r="B92" s="12">
+      <c r="A92" s="24">
+        <v>45627</v>
+      </c>
+      <c r="B92" s="32">
         <v>262091.93</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="27">
         <v>5.8064672852048763E-3</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="26">
         <v>5.1999999999999998E-3</v>
       </c>
+      <c r="E92" s="21"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
     </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="21"/>
+    </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
     </row>
@@ -3633,7 +2588,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3642,8 +2596,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:Q3060"/>
   <sheetViews>
-    <sheetView topLeftCell="A3014" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3024" sqref="A3024:G3026"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="3">
-        <v>42919</v>
+        <v>42887</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -3735,7 +2689,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="3">
-        <v>42920</v>
+        <v>42887</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3765,7 +2719,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="3">
-        <v>42931</v>
+        <v>42887</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3796,7 +2750,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="3">
-        <v>42962</v>
+        <v>42917</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3826,7 +2780,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="3">
-        <v>42975</v>
+        <v>42917</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3856,7 +2810,7 @@
         <v>213.73</v>
       </c>
       <c r="F7" s="3">
-        <v>42975</v>
+        <v>42917</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3887,7 +2841,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>42975</v>
+        <v>42917</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3917,7 +2871,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>42982</v>
+        <v>42948</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -3947,7 +2901,7 @@
         <v>1612.53</v>
       </c>
       <c r="F10" s="3">
-        <v>42982</v>
+        <v>42948</v>
       </c>
       <c r="G10" s="1">
         <v>500</v>
@@ -3978,7 +2932,7 @@
         <v>182.52</v>
       </c>
       <c r="F11" s="3">
-        <v>43000</v>
+        <v>42948</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4009,7 +2963,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>43000</v>
+        <v>42948</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4039,7 +2993,7 @@
         <v>1507.92</v>
       </c>
       <c r="F13" s="3">
-        <v>43010</v>
+        <v>42979</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4070,7 +3024,7 @@
         <v>1717.42</v>
       </c>
       <c r="F14" s="3">
-        <v>43010</v>
+        <v>42979</v>
       </c>
       <c r="G14" s="1">
         <v>800</v>
@@ -4101,7 +3055,7 @@
         <v>402.96</v>
       </c>
       <c r="F15" s="3">
-        <v>43010</v>
+        <v>42979</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4132,7 +3086,7 @@
         <v>212.72</v>
       </c>
       <c r="F16" s="3">
-        <v>43010</v>
+        <v>42979</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4163,7 +3117,7 @@
         <v>1715.1</v>
       </c>
       <c r="F17" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4194,7 +3148,7 @@
         <v>2226.46</v>
       </c>
       <c r="F18" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G18" s="1">
         <v>600</v>
@@ -4225,7 +3179,7 @@
         <v>200</v>
       </c>
       <c r="F19" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4255,7 +3209,7 @@
         <v>203.71</v>
       </c>
       <c r="F20" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4286,7 +3240,7 @@
         <v>395.97</v>
       </c>
       <c r="F21" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4317,7 +3271,7 @@
         <v>194.69</v>
       </c>
       <c r="F22" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4348,7 +3302,7 @@
         <v>189.97</v>
       </c>
       <c r="F23" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4379,7 +3333,7 @@
         <v>192.39</v>
       </c>
       <c r="F24" s="3">
-        <v>43042</v>
+        <v>43009</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -4410,7 +3364,7 @@
         <v>4219.76</v>
       </c>
       <c r="F25" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4442,7 +3396,7 @@
         <v>4232.6499999999996</v>
       </c>
       <c r="F26" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G26" s="1">
         <v>800</v>
@@ -4473,7 +3427,7 @@
         <v>605.05999999999995</v>
       </c>
       <c r="F27" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -4504,7 +3458,7 @@
         <v>193.57</v>
       </c>
       <c r="F28" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -4535,7 +3489,7 @@
         <v>381.11</v>
       </c>
       <c r="F29" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -4566,7 +3520,7 @@
         <v>198.16</v>
       </c>
       <c r="F30" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -4597,7 +3551,7 @@
         <v>202.93</v>
       </c>
       <c r="F31" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -4628,7 +3582,7 @@
         <v>189.33</v>
       </c>
       <c r="F32" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -4659,7 +3613,7 @@
         <v>176.13</v>
       </c>
       <c r="F33" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -4690,7 +3644,7 @@
         <v>170.45</v>
       </c>
       <c r="F34" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -4721,7 +3675,7 @@
         <v>4239.95</v>
       </c>
       <c r="F35" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -4752,7 +3706,7 @@
         <v>4251.51</v>
       </c>
       <c r="F36" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -4783,7 +3737,7 @@
         <v>612.32000000000005</v>
       </c>
       <c r="F37" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -4813,7 +3767,7 @@
         <v>204.04</v>
       </c>
       <c r="F38" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -4844,7 +3798,7 @@
         <v>411.69</v>
       </c>
       <c r="F39" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -4875,7 +3829,7 @@
         <v>202.77</v>
       </c>
       <c r="F40" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -4906,7 +3860,7 @@
         <v>190.44</v>
       </c>
       <c r="F41" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -4937,7 +3891,7 @@
         <v>204.64</v>
       </c>
       <c r="F42" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -4968,7 +3922,7 @@
         <v>242.92</v>
       </c>
       <c r="F43" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -4999,7 +3953,7 @@
         <v>187.67</v>
       </c>
       <c r="F44" s="3">
-        <v>43103</v>
+        <v>43435</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -5014,31 +3968,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
         <v>4256.88</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="19">
         <v>43136</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20">
         <v>3.9929716152313777E-3</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="18">
         <f t="shared" si="0"/>
         <v>16.930000000000291</v>
       </c>
@@ -92199,7 +91153,7 @@
       <c r="F3027" s="3"/>
     </row>
     <row r="3028" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F3028" s="3"/>
+      <c r="F3028" s="4"/>
     </row>
     <row r="3029" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F3029" s="3"/>
